--- a/templates/blank.xlsx
+++ b/templates/blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_Projects\ContentTables\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20C07D2-FED2-4928-8935-505DC57B3584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E6E4C-F066-4377-BDDC-80CD5EE7C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="2685" windowWidth="28800" windowHeight="15435" xr2:uid="{83951B85-16D7-466C-85D6-4B8400F8E497}"/>
+    <workbookView xWindow="38400" yWindow="5580" windowWidth="28800" windowHeight="15435" xr2:uid="{83951B85-16D7-466C-85D6-4B8400F8E497}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,9 +383,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14E05C9-BE3E-42AE-A731-E1A32406DFD5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="35.77734375" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/templates/blank.xlsx
+++ b/templates/blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_Projects\ContentTables\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E6E4C-F066-4377-BDDC-80CD5EE7C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BCA34E-68CA-465E-ADB0-5BFEE9D9E307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="5580" windowWidth="28800" windowHeight="15435" xr2:uid="{83951B85-16D7-466C-85D6-4B8400F8E497}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{83951B85-16D7-466C-85D6-4B8400F8E497}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,25 +35,128 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve"> / General Contractor:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inwestor / Investor:  </t>
+  </si>
+  <si>
+    <t>/ Subcontractor</t>
+  </si>
+  <si>
+    <t>HANDOVER DOCUMENTATION</t>
+  </si>
+  <si>
+    <t>Content of As-Built Documentation - XXXX</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       EMC NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        country</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="30"/>
+      <color indexed="9"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial CE"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial CE"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <name val="Arial CE"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Arial CE"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="63"/>
+        <bgColor indexed="59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -61,12 +164,226 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,17 +698,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14E05C9-BE3E-42AE-A731-E1A32406DFD5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="35.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="37.5">
+      <c r="A1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="2"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" ht="38.25" thickBot="1">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A24" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="20.25" thickBot="1">
+      <c r="A26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="G17:H17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"MS UI Gothic"&amp;10&amp;K008000 • PUBLIC 公開&amp;1#_x000D_</oddHeader>
